--- a/Data-Puma/Bilanca_puma.xlsx
+++ b/Data-Puma/Bilanca_puma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Assets</t>
   </si>
@@ -32,88 +32,70 @@
     <t>Fixed assets</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Intangible fixed assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Tangible fixed assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other fixed assets</t>
-  </si>
-  <si>
     <t>Current assets</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Debtors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other current assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Cash &amp; cash equivalent</t>
-  </si>
-  <si>
-    <t>Total assets</t>
-  </si>
-  <si>
     <t>Liabilities &amp; equity</t>
   </si>
   <si>
     <t>Shareholders funds</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other shareholders funds</t>
-  </si>
-  <si>
     <t>Non-current liabilities</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Long term debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other non-current liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Provisions</t>
-  </si>
-  <si>
     <t>Current liabilities</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other current liabilities</t>
-  </si>
-  <si>
     <t>Total shareh. funds &amp; liab.</t>
   </si>
   <si>
-    <t>Memo lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Working capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Net current assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Enterprise value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Number of employees</t>
-  </si>
-  <si>
     <t>Exchange rate: EUR/USD</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets</t>
+  </si>
+  <si>
+    <t>Tangible fixed assets</t>
+  </si>
+  <si>
+    <t>Other fixed assets</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Debtors</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Cash &amp; cash equivalent</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Other shareholders funds</t>
+  </si>
+  <si>
+    <t>Long term debt</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Creditors</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
   </si>
 </sst>
 </file>
@@ -212,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -231,9 +213,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -519,19 +498,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>43830</v>
@@ -545,31 +525,35 @@
       <c r="E1" s="2">
         <v>42735</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
         <v>1.1234</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>1.145</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1.1993</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1.0541</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="8">
+        <v>1.0887</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,8 +561,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -594,10 +579,13 @@
       <c r="E4" s="5">
         <v>1053783.3299159999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>1018478.79093885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>510585.23350954102</v>
@@ -611,10 +599,13 @@
       <c r="E5" s="5">
         <v>445989.52374458301</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>439072.684538364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>443405.92225790001</v>
@@ -628,10 +619,13 @@
       <c r="E6" s="5">
         <v>265738.49902152998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>253231.605315208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>1177098.3667135199</v>
@@ -645,10 +639,13 @@
       <c r="E7" s="5">
         <v>342055.30714988703</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>326174.50108528102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5">
         <v>2787379.7170162201</v>
@@ -662,10 +659,13 @@
       <c r="E8" s="5">
         <v>1860907.36284256</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>1834241.65363312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>1247086.1775994301</v>
@@ -679,10 +679,13 @@
       <c r="E9" s="5">
         <v>757792.17352867103</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>715275.85852146102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5">
         <v>687183.69051217998</v>
@@ -696,10 +699,13 @@
       <c r="E10" s="5">
         <v>526101.090288162</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>525950.939500332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>853109.84890461003</v>
@@ -713,10 +719,13 @@
       <c r="E11" s="5">
         <v>577014.09902572597</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>593014.85561132396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>582033.46420526505</v>
@@ -730,11 +739,12 @@
       <c r="E12" s="5">
         <v>344374.32618141198</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12" s="5">
+        <v>368851.53861045802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>4918469.2394971801</v>
       </c>
@@ -747,19 +757,23 @@
       <c r="E13" s="7">
         <v>2914690.6927585602</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F13" s="7">
+        <v>2852720.44457197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5">
         <v>2157264.7390723201</v>
@@ -773,10 +787,13 @@
       <c r="E15" s="5">
         <v>1815370.2618598901</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>1762931.80776834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5">
         <v>169408.69793891901</v>
@@ -790,10 +807,13 @@
       <c r="E16" s="5">
         <v>40688.243007659898</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>42023.817563056902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>1987856.0411334001</v>
@@ -807,10 +827,13 @@
       <c r="E17" s="5">
         <v>1774682.0188522299</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>1720907.99020529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B18" s="5">
         <v>1009936.46848202</v>
@@ -824,10 +847,13 @@
       <c r="E18" s="5">
         <v>156006.734848022</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>131732.69236087799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>858052.80826091801</v>
@@ -841,10 +867,13 @@
       <c r="E19" s="5">
         <v>15811.493396759</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>151883.6602211</v>
@@ -858,10 +887,13 @@
       <c r="E20" s="5">
         <v>140195.24145126299</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>131732.69236087799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>86838.808691501603</v>
@@ -875,10 +907,13 @@
       <c r="E21" s="5">
         <v>64721.712970733599</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>51495.507013797796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5">
         <v>1751268.03194284</v>
@@ -892,10 +927,13 @@
       <c r="E22" s="5">
         <v>943313.69605064404</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>958055.94444274902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>11458.6785078049</v>
@@ -909,10 +947,13 @@
       <c r="E23" s="5">
         <v>26668.718862533598</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>15241.7991161346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>947812.45657205605</v>
@@ -926,10 +967,13 @@
       <c r="E24" s="5">
         <v>612010.20441055298</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>565797.35718965495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5">
         <v>791996.89686298405</v>
@@ -943,10 +987,13 @@
       <c r="E25" s="5">
         <v>304634.77277755702</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>377016.78813695902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B26" s="7">
         <v>4918469.2394971801</v>
@@ -960,82 +1007,8 @@
       <c r="E26" s="7">
         <v>2914690.6927585602</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5">
-        <v>986457.41153955495</v>
-      </c>
-      <c r="C28" s="5">
-        <v>874322.440576553</v>
-      </c>
-      <c r="D28" s="5">
-        <v>762874.45895671798</v>
-      </c>
-      <c r="E28" s="5">
-        <v>671883.05940628098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1036111.68507338</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1142367.0756459199</v>
-      </c>
-      <c r="D29" s="8">
-        <v>993499.76701736497</v>
-      </c>
-      <c r="E29" s="8">
-        <v>917593.66679191601</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="8">
-        <v>12031122.5340891</v>
-      </c>
-      <c r="C30" s="8">
-        <v>6950307.9399036998</v>
-      </c>
-      <c r="D30" s="8">
-        <v>6173273.8591324603</v>
-      </c>
-      <c r="E30" s="8">
-        <v>3657233.71230555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="8">
-        <v>14332</v>
-      </c>
-      <c r="C31" s="8">
-        <v>12894</v>
-      </c>
-      <c r="D31" s="8">
-        <v>11787</v>
-      </c>
-      <c r="E31" s="8">
-        <v>11495</v>
+      <c r="F26" s="7">
+        <v>2852720.44457197</v>
       </c>
     </row>
   </sheetData>
